--- a/Timmy_Personal_Data.xlsx
+++ b/Timmy_Personal_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6389941-9AA2-4B42-848F-3D6503CFCD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEBEF86-55DD-4A22-8D93-A5CA77576AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="924" windowWidth="20592" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="20592" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1128,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B114" si="1">IF(OR(MOD(A67,7)=6, MOD(A67,7)=0), 4, 6)</f>
+        <f t="shared" ref="B67:B116" si="1">IF(OR(MOD(A67,7)=6, MOD(A67,7)=0), 4, 6)</f>
         <v>6</v>
       </c>
     </row>
@@ -1551,6 +1551,24 @@
         <v>113</v>
       </c>
       <c r="B114">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
